--- a/biology/Botanique/Gramon/Gramon.xlsx
+++ b/biology/Botanique/Gramon/Gramon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le gramon N[1],[N 1] est un cépage noir créé en France.
+Le gramon N,[N 1] est un cépage noir créé en France.
 </t>
         </is>
       </c>
@@ -512,13 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été créé par l'équipe de chercheurs de l'INRA de Montpellier. Il s'agit d'un croisement intra-spécifique (métissage) entre le grenache noir N et l'aramon N. Il a été homologué en 1977[2].
-Caractères ampélographiques
-Le bourgeonnement est légèrement duveteux et les jeunes feuilles sont vertes à reflets bronzés.
-Les feuilles adultes sont orbiculaires, entières ou trilobées, à sinus pétiolaire peu ouvert, les dents courtes et droites, le limbe révoluté légèrement gaufré et ondulé entre les nervures.
-Les grappes sont grosses. Les baies sont de taille moyenne de forme arrondie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été créé par l'équipe de chercheurs de l'INRA de Montpellier. Il s'agit d'un croisement intra-spécifique (métissage) entre le grenache noir N et l'aramon N. Il a été homologué en 1977.
 </t>
         </is>
       </c>
@@ -544,17 +554,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aptitudes</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culturales
-Son port érigé peut permettre de s'abstenir de palissage et de le conduire en taille gobelet. Il est fertile, mais peut présenter une tendance au millerandage.
-Sensibilité aux maladies
-Il est très sensible aux acariens, beaucoup moins vis-à-vis de la pourriture grise.
-Technologiques
-Son aptitude à emmagasiner le sucre en fait un cépage a bon titre alcoométrique. Ses vins généreux un peu tanniques, manquent toutefois un peu de couleur.
+          <t>Caractères ampélographiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bourgeonnement est légèrement duveteux et les jeunes feuilles sont vertes à reflets bronzés.
+Les feuilles adultes sont orbiculaires, entières ou trilobées, à sinus pétiolaire peu ouvert, les dents courtes et droites, le limbe révoluté légèrement gaufré et ondulé entre les nervures.
+Les grappes sont grosses. Les baies sont de taille moyenne de forme arrondie.
 </t>
         </is>
       </c>
@@ -580,10 +593,123 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son port érigé peut permettre de s'abstenir de palissage et de le conduire en taille gobelet. Il est fertile, mais peut présenter une tendance au millerandage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gramon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gramon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est très sensible aux acariens, beaucoup moins vis-à-vis de la pourriture grise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gramon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gramon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Technologiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aptitude à emmagasiner le sucre en fait un cépage a bon titre alcoométrique. Ses vins généreux un peu tanniques, manquent toutefois un peu de couleur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gramon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gramon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
